--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nemanj Gligorijevic Ilic/Desktop/AddressChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81DA8FF-1915-7E46-97E7-CD210994D0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD73E0BB-65D6-4244-AE95-CA027251164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44300" yWindow="660" windowWidth="22880" windowHeight="20940" xr2:uid="{B01F121D-BA27-2A4D-93E8-E9B2EE8AEE44}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="1592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1596">
   <si>
     <t>Lastname and Firstname</t>
   </si>
@@ -3218,9 +3218,6 @@
     <t>Limhamnsvägen 107 D lgh 1003</t>
   </si>
   <si>
-    <t>Byggareg. 11 H</t>
-  </si>
-  <si>
     <t>Norra Grängesbergsg. 42 C</t>
   </si>
   <si>
@@ -3287,9 +3284,6 @@
     <t>Stenåkersv. 146</t>
   </si>
   <si>
-    <t>Sjöblads väg 27 lgh 1501</t>
-  </si>
-  <si>
     <t>Norra Vallg. 19</t>
   </si>
   <si>
@@ -3365,9 +3359,6 @@
     <t>Lilla Varvsgatan 25 A lgh 1003</t>
   </si>
   <si>
-    <t>Ormvråksgatan 6 lgh 1603</t>
-  </si>
-  <si>
     <t>Segeparksgatan 16 lgh 1503</t>
   </si>
   <si>
@@ -3410,9 +3401,6 @@
     <t>Stadiongatan 55 A lgh 1302</t>
   </si>
   <si>
-    <t>Järnsvagsg.21</t>
-  </si>
-  <si>
     <t>Balladgatan 29 lgh 1203</t>
   </si>
   <si>
@@ -3489,12 +3477,6 @@
   </si>
   <si>
     <t>Bangatan 6 E lgh 1402</t>
-  </si>
-  <si>
-    <t>Branteviksgatan 22 lgh 1102</t>
-  </si>
-  <si>
-    <t>Lorensborgsgatan 5 A lgh 1102</t>
   </si>
   <si>
     <t>Bäckvägen 143</t>
@@ -4814,6 +4796,36 @@
   <si>
     <t>Pildammsvägen 34 lgh 1304
 214 66 Malmö</t>
+  </si>
+  <si>
+    <t>Bryggaregatan 11 H</t>
+  </si>
+  <si>
+    <t>Krusbärsgatan 6</t>
+  </si>
+  <si>
+    <t>Ne znam????</t>
+  </si>
+  <si>
+    <t>Jacob Hanssons Väg 35</t>
+  </si>
+  <si>
+    <t>Nema????</t>
+  </si>
+  <si>
+    <t>Ziv???</t>
+  </si>
+  <si>
+    <t>Per Albin Hanssons väg 10 lgh 1405</t>
+  </si>
+  <si>
+    <t>Valja "Mihajlovic"</t>
+  </si>
+  <si>
+    <t>Koristgatan 24 lgh 1401</t>
+  </si>
+  <si>
+    <t>Blåeldsgatan 10 Hässleholm</t>
   </si>
 </sst>
 </file>
@@ -5362,8 +5374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A7CDD1-687A-8A42-A204-D4FD1A64062E}">
   <dimension ref="A1:C811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217:XFD217"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5378,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5397,7 +5409,7 @@
         <v>796</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5560,7 +5572,7 @@
         <v>816</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -5568,7 +5580,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5691,7 +5703,7 @@
         <v>831</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5755,7 +5767,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -6019,7 +6031,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -6078,7 +6090,7 @@
         <v>876</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -6134,7 +6146,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -6177,7 +6189,7 @@
         <v>887</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -6228,7 +6240,7 @@
         <v>893</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -6260,7 +6272,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -6276,7 +6288,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -6327,7 +6339,7 @@
         <v>903</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6335,7 +6347,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -6434,7 +6446,7 @@
         <v>915</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -6461,7 +6473,7 @@
         <v>918</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -6512,7 +6524,7 @@
         <v>924</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -6875,7 +6887,7 @@
         <v>968</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -7067,7 +7079,7 @@
         <v>204</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -7139,7 +7151,7 @@
         <v>213</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -7270,7 +7282,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>228</v>
       </c>
@@ -7622,12 +7634,12 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
+    <row r="278" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B278" s="5" t="s">
-        <v>1060</v>
+      <c r="B278" s="13" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -7643,7 +7655,7 @@
         <v>274</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -7651,7 +7663,7 @@
         <v>275</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -7659,7 +7671,7 @@
         <v>276</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -7667,7 +7679,7 @@
         <v>277</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -7675,7 +7687,7 @@
         <v>278</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -7683,7 +7695,7 @@
         <v>279</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -7691,7 +7703,7 @@
         <v>280</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -7699,7 +7711,7 @@
         <v>281</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -7707,7 +7719,7 @@
         <v>282</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -7715,7 +7727,7 @@
         <v>283</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -7723,7 +7735,7 @@
         <v>284</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -7731,7 +7743,7 @@
         <v>285</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -7739,7 +7751,7 @@
         <v>286</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -7747,7 +7759,7 @@
         <v>287</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -7755,7 +7767,7 @@
         <v>288</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -7763,7 +7775,7 @@
         <v>289</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -7771,7 +7783,7 @@
         <v>290</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -7779,7 +7791,7 @@
         <v>291</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -7787,7 +7799,7 @@
         <v>292</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -7795,7 +7807,7 @@
         <v>293</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -7803,7 +7815,7 @@
         <v>294</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -7811,15 +7823,15 @@
         <v>295</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B302" s="5" t="s">
-        <v>1083</v>
+      <c r="B302" s="13" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -7827,7 +7839,7 @@
         <v>297</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -7835,330 +7847,339 @@
         <v>298</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B316" s="5" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B316" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B329" s="5" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B329" s="13" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B332" s="5" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B332" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B341" s="5" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B341" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B344" s="5" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B344" s="13" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>338</v>
       </c>
@@ -8166,60 +8187,66 @@
         <v>946</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B347" s="5" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B347" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B351" s="5" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B351" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -8227,7 +8254,7 @@
         <v>346</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -8235,7 +8262,7 @@
         <v>347</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -8243,7 +8270,7 @@
         <v>348</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -8259,7 +8286,7 @@
         <v>350</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -8267,7 +8294,7 @@
         <v>351</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -8275,7 +8302,7 @@
         <v>352</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -8291,7 +8318,7 @@
         <v>354</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -8299,7 +8326,7 @@
         <v>355</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -8307,7 +8334,7 @@
         <v>356</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -8315,7 +8342,7 @@
         <v>357</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -8323,7 +8350,7 @@
         <v>358</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -8331,7 +8358,7 @@
         <v>359</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -8339,7 +8366,7 @@
         <v>360</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -8347,7 +8374,7 @@
         <v>361</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -8355,7 +8382,7 @@
         <v>362</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -8363,7 +8390,7 @@
         <v>363</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -8371,7 +8398,7 @@
         <v>364</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -8379,7 +8406,7 @@
         <v>365</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -8387,23 +8414,23 @@
         <v>366</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B374" s="5" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" s="2" t="s">
+      <c r="B374" s="13" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="B375" s="5" t="s">
-        <v>1152</v>
+      <c r="B375" s="13" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -8411,7 +8438,7 @@
         <v>369</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -8419,7 +8446,7 @@
         <v>370</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -8427,7 +8454,7 @@
         <v>371</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -8435,7 +8462,7 @@
         <v>372</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -8443,7 +8470,7 @@
         <v>373</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -8451,7 +8478,7 @@
         <v>374</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -8459,7 +8486,7 @@
         <v>375</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -8467,7 +8494,7 @@
         <v>376</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -8475,7 +8502,7 @@
         <v>377</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -8483,7 +8510,7 @@
         <v>378</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -8491,7 +8518,7 @@
         <v>379</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -8499,7 +8526,7 @@
         <v>380</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -8507,7 +8534,7 @@
         <v>381</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -8515,7 +8542,7 @@
         <v>382</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -8523,7 +8550,7 @@
         <v>383</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -8531,7 +8558,7 @@
         <v>384</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -8539,7 +8566,7 @@
         <v>385</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -8547,7 +8574,7 @@
         <v>386</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -8555,7 +8582,7 @@
         <v>387</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -8563,7 +8590,7 @@
         <v>388</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -8571,7 +8598,7 @@
         <v>389</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -8579,7 +8606,7 @@
         <v>390</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -8587,7 +8614,7 @@
         <v>391</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -8595,7 +8622,7 @@
         <v>392</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -8603,7 +8630,7 @@
         <v>393</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -8619,7 +8646,7 @@
         <v>395</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -8627,7 +8654,7 @@
         <v>396</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -8635,7 +8662,7 @@
         <v>397</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -8643,7 +8670,7 @@
         <v>398</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -8651,7 +8678,7 @@
         <v>399</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -8659,7 +8686,7 @@
         <v>400</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -8667,7 +8694,7 @@
         <v>401</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -8675,7 +8702,7 @@
         <v>402</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -8683,7 +8710,7 @@
         <v>403</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -8691,7 +8718,7 @@
         <v>404</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -8699,7 +8726,7 @@
         <v>405</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -8707,7 +8734,7 @@
         <v>406</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -8715,7 +8742,7 @@
         <v>407</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -8723,7 +8750,7 @@
         <v>408</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -8731,7 +8758,7 @@
         <v>409</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -8739,7 +8766,7 @@
         <v>410</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -8747,7 +8774,7 @@
         <v>411</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -8755,7 +8782,7 @@
         <v>412</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -8763,7 +8790,7 @@
         <v>413</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="29" x14ac:dyDescent="0.2">
@@ -8771,7 +8798,7 @@
         <v>414</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -8779,7 +8806,7 @@
         <v>415</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -8787,7 +8814,7 @@
         <v>416</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -8795,7 +8822,7 @@
         <v>417</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -8803,7 +8830,7 @@
         <v>418</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -8811,7 +8838,7 @@
         <v>419</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -8819,7 +8846,7 @@
         <v>420</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -8827,7 +8854,7 @@
         <v>421</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -8835,7 +8862,7 @@
         <v>422</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -8843,7 +8870,7 @@
         <v>423</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -8851,7 +8878,7 @@
         <v>424</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -8859,7 +8886,7 @@
         <v>425</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -8867,7 +8894,7 @@
         <v>426</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -8875,7 +8902,7 @@
         <v>427</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -8883,7 +8910,7 @@
         <v>428</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -8891,7 +8918,7 @@
         <v>429</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -8899,7 +8926,7 @@
         <v>430</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -8907,7 +8934,7 @@
         <v>431</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -8915,7 +8942,7 @@
         <v>432</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -8923,7 +8950,7 @@
         <v>433</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -8931,7 +8958,7 @@
         <v>434</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -8939,7 +8966,7 @@
         <v>435</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -8947,7 +8974,7 @@
         <v>436</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -8955,7 +8982,7 @@
         <v>437</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -8963,7 +8990,7 @@
         <v>438</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -8971,7 +8998,7 @@
         <v>439</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -8979,7 +9006,7 @@
         <v>440</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -8987,7 +9014,7 @@
         <v>441</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -8995,7 +9022,7 @@
         <v>442</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -9003,7 +9030,7 @@
         <v>443</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -9011,7 +9038,7 @@
         <v>444</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -9019,7 +9046,7 @@
         <v>445</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -9027,7 +9054,7 @@
         <v>446</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -9035,7 +9062,7 @@
         <v>447</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -9043,7 +9070,7 @@
         <v>448</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -9051,7 +9078,7 @@
         <v>449</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -9059,7 +9086,7 @@
         <v>450</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -9067,7 +9094,7 @@
         <v>451</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -9075,7 +9102,7 @@
         <v>452</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -9083,7 +9110,7 @@
         <v>453</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -9091,7 +9118,7 @@
         <v>454</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -9099,7 +9126,7 @@
         <v>455</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -9107,7 +9134,7 @@
         <v>456</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -9115,7 +9142,7 @@
         <v>457</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -9123,7 +9150,7 @@
         <v>458</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -9131,7 +9158,7 @@
         <v>459</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -9139,7 +9166,7 @@
         <v>460</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -9147,7 +9174,7 @@
         <v>461</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -9155,7 +9182,7 @@
         <v>462</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -9163,7 +9190,7 @@
         <v>463</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -9171,7 +9198,7 @@
         <v>464</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -9179,7 +9206,7 @@
         <v>465</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -9187,7 +9214,7 @@
         <v>466</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -9195,7 +9222,7 @@
         <v>467</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -9203,7 +9230,7 @@
         <v>468</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -9211,7 +9238,7 @@
         <v>469</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -9219,7 +9246,7 @@
         <v>470</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -9227,7 +9254,7 @@
         <v>471</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -9235,7 +9262,7 @@
         <v>472</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -9243,7 +9270,7 @@
         <v>473</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -9251,7 +9278,7 @@
         <v>474</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -9259,7 +9286,7 @@
         <v>475</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -9267,7 +9294,7 @@
         <v>476</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -9275,7 +9302,7 @@
         <v>477</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -9283,7 +9310,7 @@
         <v>478</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -9291,7 +9318,7 @@
         <v>479</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -9299,7 +9326,7 @@
         <v>478</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -9307,7 +9334,7 @@
         <v>480</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -9315,7 +9342,7 @@
         <v>481</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -9323,7 +9350,7 @@
         <v>482</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -9331,7 +9358,7 @@
         <v>483</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -9339,7 +9366,7 @@
         <v>484</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -9347,7 +9374,7 @@
         <v>485</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -9355,7 +9382,7 @@
         <v>486</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -9363,7 +9390,7 @@
         <v>487</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -9371,7 +9398,7 @@
         <v>488</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -9379,7 +9406,7 @@
         <v>489</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -9387,7 +9414,7 @@
         <v>487</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -9395,7 +9422,7 @@
         <v>490</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -9403,7 +9430,7 @@
         <v>491</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -9411,7 +9438,7 @@
         <v>492</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -9419,7 +9446,7 @@
         <v>493</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -9427,7 +9454,7 @@
         <v>494</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -9435,7 +9462,7 @@
         <v>495</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -9443,7 +9470,7 @@
         <v>496</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -9451,7 +9478,7 @@
         <v>497</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -9459,7 +9486,7 @@
         <v>498</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -9467,7 +9494,7 @@
         <v>499</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -9475,7 +9502,7 @@
         <v>500</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -9483,7 +9510,7 @@
         <v>501</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -9491,7 +9518,7 @@
         <v>502</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -9499,7 +9526,7 @@
         <v>503</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -9507,7 +9534,7 @@
         <v>504</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -9515,7 +9542,7 @@
         <v>505</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -9523,7 +9550,7 @@
         <v>506</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -9531,7 +9558,7 @@
         <v>507</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -9539,7 +9566,7 @@
         <v>508</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -9547,7 +9574,7 @@
         <v>509</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -9555,7 +9582,7 @@
         <v>510</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -9563,7 +9590,7 @@
         <v>511</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -9571,15 +9598,15 @@
         <v>512</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>511</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -9587,7 +9614,7 @@
         <v>504</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -9595,7 +9622,7 @@
         <v>513</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -9603,7 +9630,7 @@
         <v>514</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -9611,7 +9638,7 @@
         <v>515</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -9619,7 +9646,7 @@
         <v>516</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -9627,7 +9654,7 @@
         <v>517</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -9635,7 +9662,7 @@
         <v>518</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -9643,7 +9670,7 @@
         <v>519</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -9651,7 +9678,7 @@
         <v>520</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -9659,7 +9686,7 @@
         <v>521</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -9667,7 +9694,7 @@
         <v>522</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -9675,7 +9702,7 @@
         <v>523</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -9683,7 +9710,7 @@
         <v>524</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -9691,7 +9718,7 @@
         <v>525</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -9699,7 +9726,7 @@
         <v>526</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -9707,7 +9734,7 @@
         <v>527</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -9715,7 +9742,7 @@
         <v>528</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -9723,7 +9750,7 @@
         <v>529</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
@@ -9731,7 +9758,7 @@
         <v>530</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
@@ -9739,7 +9766,7 @@
         <v>531</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -9747,7 +9774,7 @@
         <v>532</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -9755,7 +9782,7 @@
         <v>533</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -9763,7 +9790,7 @@
         <v>534</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -9771,7 +9798,7 @@
         <v>535</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -9779,7 +9806,7 @@
         <v>536</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -9787,7 +9814,7 @@
         <v>537</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -9795,7 +9822,7 @@
         <v>538</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -9803,7 +9830,7 @@
         <v>539</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -9811,7 +9838,7 @@
         <v>540</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -9819,7 +9846,7 @@
         <v>541</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -9835,7 +9862,7 @@
         <v>543</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -9843,7 +9870,7 @@
         <v>544</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -9851,7 +9878,7 @@
         <v>545</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -9859,7 +9886,7 @@
         <v>546</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -9867,7 +9894,7 @@
         <v>547</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -9875,7 +9902,7 @@
         <v>548</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -9883,7 +9910,7 @@
         <v>549</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -9891,7 +9918,7 @@
         <v>550</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
@@ -9899,7 +9926,7 @@
         <v>551</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -9907,7 +9934,7 @@
         <v>552</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -9915,7 +9942,7 @@
         <v>553</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -9923,7 +9950,7 @@
         <v>554</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -9931,7 +9958,7 @@
         <v>555</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
@@ -9939,7 +9966,7 @@
         <v>556</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -9947,7 +9974,7 @@
         <v>557</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -9955,7 +9982,7 @@
         <v>558</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -9963,7 +9990,7 @@
         <v>559</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -9971,7 +9998,7 @@
         <v>560</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -9979,7 +10006,7 @@
         <v>561</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
@@ -9987,7 +10014,7 @@
         <v>562</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
@@ -9995,7 +10022,7 @@
         <v>563</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -10003,7 +10030,7 @@
         <v>564</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
@@ -10011,7 +10038,7 @@
         <v>565</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
@@ -10019,7 +10046,7 @@
         <v>566</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -10027,7 +10054,7 @@
         <v>567</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -10035,7 +10062,7 @@
         <v>568</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -10043,7 +10070,7 @@
         <v>569</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
@@ -10051,7 +10078,7 @@
         <v>570</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
@@ -10059,7 +10086,7 @@
         <v>571</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
@@ -10067,7 +10094,7 @@
         <v>572</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -10075,7 +10102,7 @@
         <v>573</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -10083,7 +10110,7 @@
         <v>574</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
@@ -10091,7 +10118,7 @@
         <v>575</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
@@ -10099,7 +10126,7 @@
         <v>576</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
@@ -10107,7 +10134,7 @@
         <v>577</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
@@ -10115,7 +10142,7 @@
         <v>578</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
@@ -10131,7 +10158,7 @@
         <v>580</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -10139,7 +10166,7 @@
         <v>581</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
@@ -10147,7 +10174,7 @@
         <v>582</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
@@ -10155,7 +10182,7 @@
         <v>583</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
@@ -10163,7 +10190,7 @@
         <v>584</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
@@ -10171,7 +10198,7 @@
         <v>585</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
@@ -10179,7 +10206,7 @@
         <v>586</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
@@ -10187,7 +10214,7 @@
         <v>587</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -10195,7 +10222,7 @@
         <v>588</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
@@ -10203,7 +10230,7 @@
         <v>589</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
@@ -10211,7 +10238,7 @@
         <v>590</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
@@ -10219,7 +10246,7 @@
         <v>591</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
@@ -10227,7 +10254,7 @@
         <v>592</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
@@ -10235,7 +10262,7 @@
         <v>593</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
@@ -10243,7 +10270,7 @@
         <v>594</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
@@ -10251,7 +10278,7 @@
         <v>595</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
@@ -10259,7 +10286,7 @@
         <v>596</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
@@ -10267,7 +10294,7 @@
         <v>597</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
@@ -10275,7 +10302,7 @@
         <v>598</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
@@ -10283,7 +10310,7 @@
         <v>599</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
@@ -10291,7 +10318,7 @@
         <v>600</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
@@ -10299,7 +10326,7 @@
         <v>601</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
@@ -10307,7 +10334,7 @@
         <v>602</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
@@ -10315,7 +10342,7 @@
         <v>603</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
@@ -10323,7 +10350,7 @@
         <v>604</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
@@ -10331,7 +10358,7 @@
         <v>605</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
@@ -10339,7 +10366,7 @@
         <v>606</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
@@ -10347,7 +10374,7 @@
         <v>607</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
@@ -10355,7 +10382,7 @@
         <v>608</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -10363,7 +10390,7 @@
         <v>609</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
@@ -10371,7 +10398,7 @@
         <v>610</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
@@ -10379,7 +10406,7 @@
         <v>611</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
@@ -10387,7 +10414,7 @@
         <v>612</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
@@ -10395,7 +10422,7 @@
         <v>613</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
@@ -10403,7 +10430,7 @@
         <v>614</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
@@ -10411,7 +10438,7 @@
         <v>615</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
@@ -10419,7 +10446,7 @@
         <v>616</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
@@ -10427,7 +10454,7 @@
         <v>617</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
@@ -10435,7 +10462,7 @@
         <v>618</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
@@ -10443,7 +10470,7 @@
         <v>619</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
@@ -10451,7 +10478,7 @@
         <v>620</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
@@ -10459,7 +10486,7 @@
         <v>621</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
@@ -10467,7 +10494,7 @@
         <v>622</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
@@ -10475,7 +10502,7 @@
         <v>623</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -10483,7 +10510,7 @@
         <v>624</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
@@ -10491,7 +10518,7 @@
         <v>625</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
@@ -10499,7 +10526,7 @@
         <v>626</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
@@ -10507,7 +10534,7 @@
         <v>627</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
@@ -10515,7 +10542,7 @@
         <v>628</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
@@ -10523,7 +10550,7 @@
         <v>629</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
@@ -10531,7 +10558,7 @@
         <v>630</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
@@ -10539,7 +10566,7 @@
         <v>631</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
@@ -10547,7 +10574,7 @@
         <v>632</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
@@ -10555,7 +10582,7 @@
         <v>633</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
@@ -10563,7 +10590,7 @@
         <v>634</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
@@ -10571,7 +10598,7 @@
         <v>635</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
@@ -10579,7 +10606,7 @@
         <v>636</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
@@ -10587,7 +10614,7 @@
         <v>637</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -10595,7 +10622,7 @@
         <v>638</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
@@ -10603,7 +10630,7 @@
         <v>639</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
@@ -10611,7 +10638,7 @@
         <v>640</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
@@ -10619,7 +10646,7 @@
         <v>641</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
@@ -10627,7 +10654,7 @@
         <v>642</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
@@ -10635,7 +10662,7 @@
         <v>643</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -10643,7 +10670,7 @@
         <v>644</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -10651,7 +10678,7 @@
         <v>645</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
@@ -10659,7 +10686,7 @@
         <v>646</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
@@ -10667,7 +10694,7 @@
         <v>647</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
@@ -10675,7 +10702,7 @@
         <v>648</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
@@ -10683,7 +10710,7 @@
         <v>649</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -10691,7 +10718,7 @@
         <v>650</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -10699,7 +10726,7 @@
         <v>651</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -10707,7 +10734,7 @@
         <v>652</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -10715,7 +10742,7 @@
         <v>653</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
@@ -10723,7 +10750,7 @@
         <v>654</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -10731,7 +10758,7 @@
         <v>655</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
@@ -10739,7 +10766,7 @@
         <v>656</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
@@ -10747,7 +10774,7 @@
         <v>657</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -10755,7 +10782,7 @@
         <v>658</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
@@ -10763,7 +10790,7 @@
         <v>659</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
@@ -10771,7 +10798,7 @@
         <v>660</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
@@ -10779,7 +10806,7 @@
         <v>661</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
@@ -10787,7 +10814,7 @@
         <v>662</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
@@ -10795,7 +10822,7 @@
         <v>663</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
@@ -10803,7 +10830,7 @@
         <v>664</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
@@ -10811,7 +10838,7 @@
         <v>665</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
@@ -10819,7 +10846,7 @@
         <v>666</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
@@ -10827,7 +10854,7 @@
         <v>659</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
@@ -10835,7 +10862,7 @@
         <v>667</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
@@ -10843,7 +10870,7 @@
         <v>668</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
@@ -10851,7 +10878,7 @@
         <v>669</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
@@ -10867,7 +10894,7 @@
         <v>671</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
@@ -10875,7 +10902,7 @@
         <v>672</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
@@ -10883,7 +10910,7 @@
         <v>673</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
@@ -10891,7 +10918,7 @@
         <v>673</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
@@ -10899,7 +10926,7 @@
         <v>674</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -10907,7 +10934,7 @@
         <v>675</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
@@ -10915,7 +10942,7 @@
         <v>676</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -10923,7 +10950,7 @@
         <v>677</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -10931,7 +10958,7 @@
         <v>678</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
@@ -10939,7 +10966,7 @@
         <v>679</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
@@ -10947,7 +10974,7 @@
         <v>680</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
@@ -10955,7 +10982,7 @@
         <v>681</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
@@ -10963,7 +10990,7 @@
         <v>682</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
@@ -10971,7 +10998,7 @@
         <v>683</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -10979,7 +11006,7 @@
         <v>684</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -10987,7 +11014,7 @@
         <v>685</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
@@ -10995,7 +11022,7 @@
         <v>686</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
@@ -11003,7 +11030,7 @@
         <v>687</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
@@ -11011,7 +11038,7 @@
         <v>688</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
@@ -11019,7 +11046,7 @@
         <v>689</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
@@ -11027,7 +11054,7 @@
         <v>690</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
@@ -11035,7 +11062,7 @@
         <v>691</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
@@ -11043,7 +11070,7 @@
         <v>692</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
@@ -11051,7 +11078,7 @@
         <v>693</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
@@ -11059,7 +11086,7 @@
         <v>694</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
@@ -11067,7 +11094,7 @@
         <v>695</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -11075,7 +11102,7 @@
         <v>696</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
@@ -11083,7 +11110,7 @@
         <v>697</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
@@ -11091,7 +11118,7 @@
         <v>698</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
@@ -11099,7 +11126,7 @@
         <v>699</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
@@ -11107,7 +11134,7 @@
         <v>699</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
@@ -11115,7 +11142,7 @@
         <v>700</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
@@ -11123,7 +11150,7 @@
         <v>701</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
@@ -11131,7 +11158,7 @@
         <v>702</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
@@ -11139,7 +11166,7 @@
         <v>703</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -11147,7 +11174,7 @@
         <v>704</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
@@ -11155,7 +11182,7 @@
         <v>705</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
@@ -11163,7 +11190,7 @@
         <v>706</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
@@ -11171,7 +11198,7 @@
         <v>707</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
@@ -11179,7 +11206,7 @@
         <v>708</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
@@ -11187,7 +11214,7 @@
         <v>709</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
@@ -11195,7 +11222,7 @@
         <v>710</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
@@ -11203,7 +11230,7 @@
         <v>711</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
@@ -11211,7 +11238,7 @@
         <v>712</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
@@ -11219,7 +11246,7 @@
         <v>713</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
@@ -11227,7 +11254,7 @@
         <v>714</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
@@ -11235,7 +11262,7 @@
         <v>715</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
@@ -11243,7 +11270,7 @@
         <v>716</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
@@ -11251,7 +11278,7 @@
         <v>717</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
@@ -11259,7 +11286,7 @@
         <v>718</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
@@ -11267,7 +11294,7 @@
         <v>719</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
@@ -11275,7 +11302,7 @@
         <v>720</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
@@ -11283,7 +11310,7 @@
         <v>721</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
@@ -11291,7 +11318,7 @@
         <v>722</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
@@ -11299,7 +11326,7 @@
         <v>723</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
@@ -11307,7 +11334,7 @@
         <v>724</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
@@ -11315,7 +11342,7 @@
         <v>725</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
@@ -11323,7 +11350,7 @@
         <v>726</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
@@ -11331,7 +11358,7 @@
         <v>727</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
@@ -11339,7 +11366,7 @@
         <v>728</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
@@ -11347,7 +11374,7 @@
         <v>729</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
@@ -11355,7 +11382,7 @@
         <v>730</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
@@ -11363,7 +11390,7 @@
         <v>731</v>
       </c>
       <c r="B745" s="5" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
@@ -11371,7 +11398,7 @@
         <v>732</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
@@ -11379,7 +11406,7 @@
         <v>732</v>
       </c>
       <c r="B747" s="5" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
@@ -11387,7 +11414,7 @@
         <v>733</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
@@ -11395,7 +11422,7 @@
         <v>734</v>
       </c>
       <c r="B749" s="5" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
@@ -11403,7 +11430,7 @@
         <v>735</v>
       </c>
       <c r="B750" s="5" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
@@ -11411,7 +11438,7 @@
         <v>736</v>
       </c>
       <c r="B751" s="5" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
@@ -11419,7 +11446,7 @@
         <v>737</v>
       </c>
       <c r="B752" s="5" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
@@ -11427,7 +11454,7 @@
         <v>738</v>
       </c>
       <c r="B753" s="5" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
@@ -11435,7 +11462,7 @@
         <v>739</v>
       </c>
       <c r="B754" s="5" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
@@ -11443,7 +11470,7 @@
         <v>740</v>
       </c>
       <c r="B755" s="5" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
@@ -11451,7 +11478,7 @@
         <v>741</v>
       </c>
       <c r="B756" s="5" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
@@ -11459,7 +11486,7 @@
         <v>742</v>
       </c>
       <c r="B757" s="5" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
@@ -11467,7 +11494,7 @@
         <v>743</v>
       </c>
       <c r="B758" s="5" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -11475,7 +11502,7 @@
         <v>744</v>
       </c>
       <c r="B759" s="5" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
@@ -11483,7 +11510,7 @@
         <v>745</v>
       </c>
       <c r="B760" s="5" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
@@ -11491,7 +11518,7 @@
         <v>746</v>
       </c>
       <c r="B761" s="5" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
@@ -11499,7 +11526,7 @@
         <v>747</v>
       </c>
       <c r="B762" s="5" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
@@ -11507,7 +11534,7 @@
         <v>748</v>
       </c>
       <c r="B763" s="5" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
@@ -11515,7 +11542,7 @@
         <v>749</v>
       </c>
       <c r="B764" s="5" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
@@ -11523,7 +11550,7 @@
         <v>750</v>
       </c>
       <c r="B765" s="5" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
@@ -11531,7 +11558,7 @@
         <v>751</v>
       </c>
       <c r="B766" s="5" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
@@ -11539,7 +11566,7 @@
         <v>752</v>
       </c>
       <c r="B767" s="5" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
@@ -11547,7 +11574,7 @@
         <v>753</v>
       </c>
       <c r="B768" s="5" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
@@ -11555,7 +11582,7 @@
         <v>754</v>
       </c>
       <c r="B769" s="5" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
@@ -11563,7 +11590,7 @@
         <v>755</v>
       </c>
       <c r="B770" s="5" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
@@ -11571,7 +11598,7 @@
         <v>756</v>
       </c>
       <c r="B771" s="5" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
@@ -11579,7 +11606,7 @@
         <v>757</v>
       </c>
       <c r="B772" s="5" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
@@ -11587,7 +11614,7 @@
         <v>758</v>
       </c>
       <c r="B773" s="5" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
@@ -11595,7 +11622,7 @@
         <v>759</v>
       </c>
       <c r="B774" s="5" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
@@ -11603,7 +11630,7 @@
         <v>760</v>
       </c>
       <c r="B775" s="5" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
@@ -11611,7 +11638,7 @@
         <v>761</v>
       </c>
       <c r="B776" s="5" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
@@ -11619,7 +11646,7 @@
         <v>762</v>
       </c>
       <c r="B777" s="5" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
@@ -11627,7 +11654,7 @@
         <v>763</v>
       </c>
       <c r="B778" s="5" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
@@ -11635,7 +11662,7 @@
         <v>764</v>
       </c>
       <c r="B779" s="5" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
@@ -11643,7 +11670,7 @@
         <v>765</v>
       </c>
       <c r="B780" s="5" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
@@ -11651,7 +11678,7 @@
         <v>766</v>
       </c>
       <c r="B781" s="5" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
@@ -11659,7 +11686,7 @@
         <v>767</v>
       </c>
       <c r="B782" s="5" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
@@ -11667,7 +11694,7 @@
         <v>768</v>
       </c>
       <c r="B783" s="5" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
@@ -11675,7 +11702,7 @@
         <v>769</v>
       </c>
       <c r="B784" s="5" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
@@ -11683,7 +11710,7 @@
         <v>770</v>
       </c>
       <c r="B785" s="5" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -11691,7 +11718,7 @@
         <v>771</v>
       </c>
       <c r="B786" s="5" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
@@ -11699,7 +11726,7 @@
         <v>772</v>
       </c>
       <c r="B787" s="5" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
@@ -11707,7 +11734,7 @@
         <v>773</v>
       </c>
       <c r="B788" s="5" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
@@ -11715,7 +11742,7 @@
         <v>774</v>
       </c>
       <c r="B789" s="5" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
@@ -11723,7 +11750,7 @@
         <v>775</v>
       </c>
       <c r="B790" s="5" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
@@ -11731,7 +11758,7 @@
         <v>776</v>
       </c>
       <c r="B791" s="5" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
@@ -11739,7 +11766,7 @@
         <v>777</v>
       </c>
       <c r="B792" s="5" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
@@ -11747,7 +11774,7 @@
         <v>778</v>
       </c>
       <c r="B793" s="5" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
@@ -11755,7 +11782,7 @@
         <v>779</v>
       </c>
       <c r="B794" s="5" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
@@ -11763,7 +11790,7 @@
         <v>780</v>
       </c>
       <c r="B795" s="5" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
@@ -11771,7 +11798,7 @@
         <v>781</v>
       </c>
       <c r="B796" s="5" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
@@ -11779,7 +11806,7 @@
         <v>782</v>
       </c>
       <c r="B797" s="5" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
@@ -11787,7 +11814,7 @@
         <v>783</v>
       </c>
       <c r="B798" s="5" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
@@ -11795,7 +11822,7 @@
         <v>784</v>
       </c>
       <c r="B799" s="5" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
@@ -11803,7 +11830,7 @@
         <v>785</v>
       </c>
       <c r="B800" s="5" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
@@ -11811,7 +11838,7 @@
         <v>786</v>
       </c>
       <c r="B801" s="5" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
@@ -11819,7 +11846,7 @@
         <v>787</v>
       </c>
       <c r="B802" s="5" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
@@ -11827,7 +11854,7 @@
         <v>788</v>
       </c>
       <c r="B803" s="5" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
@@ -11835,7 +11862,7 @@
         <v>789</v>
       </c>
       <c r="B804" s="5" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
@@ -11843,7 +11870,7 @@
         <v>790</v>
       </c>
       <c r="B805" s="5" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
@@ -11851,7 +11878,7 @@
         <v>791</v>
       </c>
       <c r="B806" s="5" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
@@ -11859,7 +11886,7 @@
         <v>792</v>
       </c>
       <c r="B807" s="5" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
@@ -11867,7 +11894,7 @@
         <v>793</v>
       </c>
       <c r="B808" s="5" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
@@ -11875,7 +11902,7 @@
         <v>794</v>
       </c>
       <c r="B809" s="5" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nemanj Gligorijevic Ilic/Desktop/AddressChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD73E0BB-65D6-4244-AE95-CA027251164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB81F05-1F27-2340-84F0-5C634D71A9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44300" yWindow="660" windowWidth="22880" windowHeight="20940" xr2:uid="{B01F121D-BA27-2A4D-93E8-E9B2EE8AEE44}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1598">
   <si>
     <t>Lastname and Firstname</t>
   </si>
@@ -3491,9 +3491,6 @@
     <t>Segevångsg. 17 B</t>
   </si>
   <si>
-    <t>Balladgatan 37 lgh 1003</t>
-  </si>
-  <si>
     <t>Kastanjeg. 17 E</t>
   </si>
   <si>
@@ -3554,9 +3551,6 @@
     <t>Östra Hylliev. 115</t>
   </si>
   <si>
-    <t>Kronetorpag. 54 B</t>
-  </si>
-  <si>
     <t>S. Gulsparvsg. 29 C</t>
   </si>
   <si>
@@ -3579,9 +3573,6 @@
   </si>
   <si>
     <t>Vårbog. 15 C</t>
-  </si>
-  <si>
-    <t>Blankebäcksg. 19</t>
   </si>
   <si>
     <t>Plommongatan 2</t>
@@ -3657,9 +3648,6 @@
     <t>Spång.16a</t>
   </si>
   <si>
-    <t>Lektorsgången  5 A lgh 303</t>
-  </si>
-  <si>
     <t>Bullerbygatan 109 lgh 1001</t>
   </si>
   <si>
@@ -3693,15 +3681,9 @@
     <t>Häradsv.40</t>
   </si>
   <si>
-    <t>Stadiongatan 57 G lgh 1201</t>
-  </si>
-  <si>
     <t>Axel Danielssons väg 426</t>
   </si>
   <si>
-    <t>Posteljonsg. 6</t>
-  </si>
-  <si>
     <t>Berguvsgatan 20 D</t>
   </si>
   <si>
@@ -3717,9 +3699,6 @@
     <t>Serenadgatan 53 lgh 1701</t>
   </si>
   <si>
-    <t>Grenv. 4</t>
-  </si>
-  <si>
     <t>Fänkålsvägen 76</t>
   </si>
   <si>
@@ -3762,9 +3741,6 @@
     <t>Rödkullastigen 1a lgh 1305</t>
   </si>
   <si>
-    <t>Hällasvängen 9 A</t>
-  </si>
-  <si>
     <t>Serenadg. 23</t>
   </si>
   <si>
@@ -3792,9 +3768,6 @@
     <t>Solkurvan 30</t>
   </si>
   <si>
-    <t>Arhitektg.33</t>
-  </si>
-  <si>
     <t>Per Albin Hanssons väg 50A</t>
   </si>
   <si>
@@ -3828,9 +3801,6 @@
     <t>Abbedissg. 8</t>
   </si>
   <si>
-    <t>Galgabacken 1</t>
-  </si>
-  <si>
     <t>Dikesvägen 2</t>
   </si>
   <si>
@@ -3873,13 +3843,7 @@
     <t>Poppelg. 57</t>
   </si>
   <si>
-    <t>Sjöblads väg 9 lgh 1003</t>
-  </si>
-  <si>
     <t>Vitemölleg. 15 F</t>
-  </si>
-  <si>
-    <t>Ramels väg 75 lgh 1502</t>
   </si>
   <si>
     <t>Ringg.13</t>
@@ -4819,20 +4783,62 @@
     <t>Per Albin Hanssons väg 10 lgh 1405</t>
   </si>
   <si>
-    <t>Valja "Mihajlovic"</t>
-  </si>
-  <si>
     <t>Koristgatan 24 lgh 1401</t>
   </si>
   <si>
     <t>Blåeldsgatan 10 Hässleholm</t>
+  </si>
+  <si>
+    <t>von Lingens väg 46 lgh 1002</t>
+  </si>
+  <si>
+    <t>Kronetorpsgatan 54 B</t>
+  </si>
+  <si>
+    <t>Blankebäcksvägen 19</t>
+  </si>
+  <si>
+    <t>ziv???</t>
+  </si>
+  <si>
+    <t>Proveriti</t>
+  </si>
+  <si>
+    <t>Lektorsgången  5 A lgh 1103</t>
+  </si>
+  <si>
+    <t>Lugna Gatan 42 A lgh 1204</t>
+  </si>
+  <si>
+    <t>Valjda "Mihajlovic"</t>
+  </si>
+  <si>
+    <t>Postiljonsgatan 6</t>
+  </si>
+  <si>
+    <t>Genvägen 4</t>
+  </si>
+  <si>
+    <t>Hallasvängen 9 A lgh 1102 Trelleborg</t>
+  </si>
+  <si>
+    <t>Arkitektgatan 33</t>
+  </si>
+  <si>
+    <t>Tordmulevägen 3 D lgh 1101 Lund</t>
+  </si>
+  <si>
+    <t>Folksångsgatan 66</t>
+  </si>
+  <si>
+    <t>Apelsingatan 18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4861,6 +4867,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -4996,7 +5008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5038,6 +5050,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5374,8 +5394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A7CDD1-687A-8A42-A204-D4FD1A64062E}">
   <dimension ref="A1:C811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="C528" sqref="C528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5390,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5409,7 +5429,7 @@
         <v>796</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5572,7 +5592,7 @@
         <v>816</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -5580,7 +5600,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5703,7 +5723,7 @@
         <v>831</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5767,7 +5787,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1573</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -6031,7 +6051,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -6090,7 +6110,7 @@
         <v>876</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -6146,7 +6166,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -6189,7 +6209,7 @@
         <v>887</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -6240,7 +6260,7 @@
         <v>893</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>1576</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -6272,7 +6292,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -6288,7 +6308,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>1578</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -6339,7 +6359,7 @@
         <v>903</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>1579</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6347,7 +6367,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -6446,7 +6466,7 @@
         <v>915</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>1581</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -6473,7 +6493,7 @@
         <v>918</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -6524,7 +6544,7 @@
         <v>924</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -6887,7 +6907,7 @@
         <v>968</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>1583</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -7079,7 +7099,7 @@
         <v>204</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -7151,7 +7171,7 @@
         <v>213</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>1585</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -7639,7 +7659,7 @@
         <v>272</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>1586</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -7831,7 +7851,7 @@
         <v>296</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -7946,7 +7966,7 @@
         <v>1095</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -8050,7 +8070,7 @@
         <v>323</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -8077,7 +8097,7 @@
         <v>1109</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>1590</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -8152,7 +8172,7 @@
         <v>1118</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -8176,7 +8196,7 @@
         <v>337</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -8203,7 +8223,7 @@
         <v>1122</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -8238,7 +8258,7 @@
         <v>1126</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -8422,7 +8442,7 @@
         <v>367</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>1594</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="375" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -8430,7 +8450,7 @@
         <v>368</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -8465,12 +8485,12 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" s="2" t="s">
+    <row r="380" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B380" s="5" t="s">
-        <v>1151</v>
+      <c r="B380" s="13" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -8478,7 +8498,7 @@
         <v>374</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -8486,7 +8506,7 @@
         <v>375</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -8494,7 +8514,7 @@
         <v>376</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -8502,7 +8522,7 @@
         <v>377</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -8510,7 +8530,7 @@
         <v>378</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -8518,7 +8538,7 @@
         <v>379</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -8526,7 +8546,7 @@
         <v>380</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -8534,7 +8554,7 @@
         <v>381</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -8542,7 +8562,7 @@
         <v>382</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -8550,7 +8570,7 @@
         <v>383</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -8558,7 +8578,7 @@
         <v>384</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -8566,7 +8586,7 @@
         <v>385</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -8574,7 +8594,7 @@
         <v>386</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -8582,7 +8602,7 @@
         <v>387</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -8590,7 +8610,7 @@
         <v>388</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -8598,7 +8618,7 @@
         <v>389</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -8606,7 +8626,7 @@
         <v>390</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -8614,7 +8634,7 @@
         <v>391</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -8622,7 +8642,7 @@
         <v>392</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -8630,7 +8650,7 @@
         <v>393</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -8641,12 +8661,12 @@
         <v>983</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" s="2" t="s">
+    <row r="402" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B402" s="5" t="s">
-        <v>1172</v>
+      <c r="B402" s="13" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -8654,7 +8674,7 @@
         <v>396</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -8662,7 +8682,7 @@
         <v>397</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -8670,7 +8690,7 @@
         <v>398</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -8678,7 +8698,7 @@
         <v>399</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -8686,7 +8706,7 @@
         <v>400</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -8694,7 +8714,7 @@
         <v>401</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -8702,7 +8722,7 @@
         <v>402</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -8710,15 +8730,15 @@
         <v>403</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="B411" s="5" t="s">
-        <v>1181</v>
+      <c r="B411" s="13" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -8726,7 +8746,7 @@
         <v>405</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -8734,7 +8754,7 @@
         <v>406</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -8742,7 +8762,7 @@
         <v>407</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -8750,7 +8770,7 @@
         <v>408</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -8758,178 +8778,191 @@
         <v>409</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>411</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="29" x14ac:dyDescent="0.2">
-      <c r="A421" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+      <c r="A421" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B421" s="5" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="2" t="s">
+      <c r="B421" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B422" s="5" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B422" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+      <c r="C423" s="19"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="B431" s="5" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B431" s="21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C431" s="22" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>425</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>426</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B434" s="5" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B434" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B436" s="5" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B436" s="7" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>431</v>
       </c>
@@ -8937,92 +8970,92 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>435</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="2" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="B449" s="5" t="s">
-        <v>1218</v>
+      <c r="B449" s="13" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -9030,15 +9063,15 @@
         <v>443</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="2" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="B451" s="5" t="s">
-        <v>1220</v>
+      <c r="B451" s="13" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -9046,7 +9079,7 @@
         <v>445</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -9054,7 +9087,7 @@
         <v>446</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -9062,7 +9095,7 @@
         <v>447</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -9070,7 +9103,7 @@
         <v>448</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -9078,15 +9111,15 @@
         <v>449</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" s="2" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="B457" s="5" t="s">
-        <v>1226</v>
+      <c r="B457" s="13" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -9094,7 +9127,7 @@
         <v>451</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -9102,7 +9135,7 @@
         <v>452</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -9110,7 +9143,7 @@
         <v>453</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -9118,7 +9151,7 @@
         <v>454</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -9126,7 +9159,7 @@
         <v>455</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -9134,7 +9167,7 @@
         <v>456</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -9142,7 +9175,7 @@
         <v>457</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -9150,7 +9183,7 @@
         <v>458</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -9158,7 +9191,7 @@
         <v>459</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -9166,7 +9199,7 @@
         <v>460</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -9174,7 +9207,7 @@
         <v>461</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -9182,7 +9215,7 @@
         <v>462</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -9190,7 +9223,7 @@
         <v>463</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -9198,15 +9231,15 @@
         <v>464</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="B472" s="5" t="s">
-        <v>1241</v>
+      <c r="B472" s="13" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -9214,7 +9247,7 @@
         <v>466</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -9222,7 +9255,7 @@
         <v>467</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -9230,7 +9263,7 @@
         <v>468</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -9238,7 +9271,7 @@
         <v>469</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -9246,7 +9279,7 @@
         <v>470</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -9254,7 +9287,7 @@
         <v>471</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -9262,7 +9295,7 @@
         <v>472</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -9270,7 +9303,7 @@
         <v>473</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -9278,15 +9311,15 @@
         <v>474</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="B482" s="5" t="s">
-        <v>1251</v>
+      <c r="B482" s="13" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -9294,7 +9327,7 @@
         <v>476</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -9302,7 +9335,7 @@
         <v>477</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -9310,7 +9343,7 @@
         <v>478</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -9318,7 +9351,7 @@
         <v>479</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -9326,7 +9359,7 @@
         <v>478</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -9334,7 +9367,7 @@
         <v>480</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -9342,7 +9375,7 @@
         <v>481</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -9350,7 +9383,7 @@
         <v>482</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -9358,7 +9391,7 @@
         <v>483</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -9366,7 +9399,7 @@
         <v>484</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -9374,15 +9407,15 @@
         <v>485</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A494" s="2" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="B494" s="5" t="s">
-        <v>1263</v>
+      <c r="B494" s="13" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -9390,7 +9423,7 @@
         <v>487</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -9398,7 +9431,7 @@
         <v>488</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -9406,7 +9439,7 @@
         <v>489</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -9414,7 +9447,7 @@
         <v>487</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -9422,7 +9455,7 @@
         <v>490</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -9430,7 +9463,7 @@
         <v>491</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -9438,7 +9471,7 @@
         <v>492</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -9446,7 +9479,7 @@
         <v>493</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -9454,7 +9487,7 @@
         <v>494</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -9462,7 +9495,7 @@
         <v>495</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -9470,7 +9503,7 @@
         <v>496</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -9478,7 +9511,7 @@
         <v>497</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -9486,7 +9519,7 @@
         <v>498</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -9494,15 +9527,15 @@
         <v>499</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A509" s="2" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="B509" s="5" t="s">
-        <v>1278</v>
+      <c r="B509" s="13" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -9510,15 +9543,15 @@
         <v>501</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511" s="2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="B511" s="5" t="s">
-        <v>1280</v>
+      <c r="B511" s="13" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -9526,135 +9559,141 @@
         <v>503</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
         <v>504</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>505</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>506</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>507</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>508</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>509</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>510</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
         <v>511</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A521" s="2" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B521" s="5" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A522" s="2" t="s">
+      <c r="B521" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C521" s="8" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B522" s="5" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B522" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C522" s="8" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>504</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
         <v>513</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>514</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>515</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
         <v>516</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>517</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -9662,7 +9701,7 @@
         <v>518</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -9670,7 +9709,7 @@
         <v>519</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -9678,7 +9717,7 @@
         <v>520</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -9686,7 +9725,7 @@
         <v>521</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -9694,7 +9733,7 @@
         <v>522</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -9702,7 +9741,7 @@
         <v>523</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -9710,7 +9749,7 @@
         <v>524</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -9718,7 +9757,7 @@
         <v>525</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -9726,7 +9765,7 @@
         <v>526</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -9734,7 +9773,7 @@
         <v>527</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -9742,7 +9781,7 @@
         <v>528</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -9750,7 +9789,7 @@
         <v>529</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
@@ -9758,7 +9797,7 @@
         <v>530</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
@@ -9766,7 +9805,7 @@
         <v>531</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -9774,7 +9813,7 @@
         <v>532</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -9782,7 +9821,7 @@
         <v>533</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -9790,7 +9829,7 @@
         <v>534</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -9798,7 +9837,7 @@
         <v>535</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -9806,7 +9845,7 @@
         <v>536</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -9814,7 +9853,7 @@
         <v>537</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -9822,7 +9861,7 @@
         <v>538</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -9830,7 +9869,7 @@
         <v>539</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -9838,7 +9877,7 @@
         <v>540</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -9846,7 +9885,7 @@
         <v>541</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -9862,7 +9901,7 @@
         <v>543</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -9870,7 +9909,7 @@
         <v>544</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -9878,7 +9917,7 @@
         <v>545</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -9886,7 +9925,7 @@
         <v>546</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -9894,7 +9933,7 @@
         <v>547</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -9902,7 +9941,7 @@
         <v>548</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -9910,7 +9949,7 @@
         <v>549</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -9918,7 +9957,7 @@
         <v>550</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
@@ -9926,7 +9965,7 @@
         <v>551</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -9934,7 +9973,7 @@
         <v>552</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -9942,7 +9981,7 @@
         <v>553</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -9950,7 +9989,7 @@
         <v>554</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -9958,7 +9997,7 @@
         <v>555</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
@@ -9966,7 +10005,7 @@
         <v>556</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -9974,7 +10013,7 @@
         <v>557</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -9982,7 +10021,7 @@
         <v>558</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -9990,7 +10029,7 @@
         <v>559</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -9998,7 +10037,7 @@
         <v>560</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -10006,7 +10045,7 @@
         <v>561</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
@@ -10014,7 +10053,7 @@
         <v>562</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
@@ -10022,7 +10061,7 @@
         <v>563</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -10030,7 +10069,7 @@
         <v>564</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
@@ -10038,7 +10077,7 @@
         <v>565</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
@@ -10046,7 +10085,7 @@
         <v>566</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -10054,7 +10093,7 @@
         <v>567</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -10062,7 +10101,7 @@
         <v>568</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -10070,7 +10109,7 @@
         <v>569</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
@@ -10078,7 +10117,7 @@
         <v>570</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
@@ -10086,7 +10125,7 @@
         <v>571</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
@@ -10094,7 +10133,7 @@
         <v>572</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -10102,7 +10141,7 @@
         <v>573</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -10110,7 +10149,7 @@
         <v>574</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
@@ -10118,7 +10157,7 @@
         <v>575</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
@@ -10126,7 +10165,7 @@
         <v>576</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
@@ -10134,7 +10173,7 @@
         <v>577</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
@@ -10142,7 +10181,7 @@
         <v>578</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
@@ -10158,7 +10197,7 @@
         <v>580</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -10166,7 +10205,7 @@
         <v>581</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
@@ -10174,7 +10213,7 @@
         <v>582</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
@@ -10182,7 +10221,7 @@
         <v>583</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
@@ -10190,7 +10229,7 @@
         <v>584</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
@@ -10198,7 +10237,7 @@
         <v>585</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
@@ -10206,7 +10245,7 @@
         <v>586</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
@@ -10214,7 +10253,7 @@
         <v>587</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -10222,7 +10261,7 @@
         <v>588</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
@@ -10230,7 +10269,7 @@
         <v>589</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
@@ -10238,7 +10277,7 @@
         <v>590</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
@@ -10246,7 +10285,7 @@
         <v>591</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
@@ -10254,7 +10293,7 @@
         <v>592</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
@@ -10262,7 +10301,7 @@
         <v>593</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
@@ -10270,7 +10309,7 @@
         <v>594</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
@@ -10278,7 +10317,7 @@
         <v>595</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
@@ -10286,7 +10325,7 @@
         <v>596</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
@@ -10294,7 +10333,7 @@
         <v>597</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
@@ -10302,7 +10341,7 @@
         <v>598</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
@@ -10310,7 +10349,7 @@
         <v>599</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
@@ -10318,7 +10357,7 @@
         <v>600</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
@@ -10326,7 +10365,7 @@
         <v>601</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
@@ -10334,7 +10373,7 @@
         <v>602</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
@@ -10342,7 +10381,7 @@
         <v>603</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
@@ -10350,7 +10389,7 @@
         <v>604</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
@@ -10358,7 +10397,7 @@
         <v>605</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
@@ -10366,7 +10405,7 @@
         <v>606</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
@@ -10374,7 +10413,7 @@
         <v>607</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
@@ -10382,7 +10421,7 @@
         <v>608</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -10390,7 +10429,7 @@
         <v>609</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
@@ -10398,7 +10437,7 @@
         <v>610</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
@@ -10406,7 +10445,7 @@
         <v>611</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
@@ -10414,7 +10453,7 @@
         <v>612</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
@@ -10422,7 +10461,7 @@
         <v>613</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
@@ -10430,7 +10469,7 @@
         <v>614</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
@@ -10438,7 +10477,7 @@
         <v>615</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
@@ -10446,7 +10485,7 @@
         <v>616</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
@@ -10454,7 +10493,7 @@
         <v>617</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
@@ -10462,7 +10501,7 @@
         <v>618</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
@@ -10470,7 +10509,7 @@
         <v>619</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
@@ -10478,7 +10517,7 @@
         <v>620</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
@@ -10486,7 +10525,7 @@
         <v>621</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
@@ -10494,7 +10533,7 @@
         <v>622</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
@@ -10502,7 +10541,7 @@
         <v>623</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -10510,7 +10549,7 @@
         <v>624</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
@@ -10518,7 +10557,7 @@
         <v>625</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
@@ -10526,7 +10565,7 @@
         <v>626</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
@@ -10534,7 +10573,7 @@
         <v>627</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
@@ -10542,7 +10581,7 @@
         <v>628</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
@@ -10550,7 +10589,7 @@
         <v>629</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
@@ -10558,7 +10597,7 @@
         <v>630</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
@@ -10566,7 +10605,7 @@
         <v>631</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
@@ -10574,7 +10613,7 @@
         <v>632</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
@@ -10582,7 +10621,7 @@
         <v>633</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
@@ -10590,7 +10629,7 @@
         <v>634</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
@@ -10598,7 +10637,7 @@
         <v>635</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
@@ -10606,7 +10645,7 @@
         <v>636</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
@@ -10614,7 +10653,7 @@
         <v>637</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -10622,7 +10661,7 @@
         <v>638</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
@@ -10630,7 +10669,7 @@
         <v>639</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
@@ -10638,7 +10677,7 @@
         <v>640</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
@@ -10646,7 +10685,7 @@
         <v>641</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
@@ -10654,7 +10693,7 @@
         <v>642</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
@@ -10662,7 +10701,7 @@
         <v>643</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -10670,7 +10709,7 @@
         <v>644</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -10678,7 +10717,7 @@
         <v>645</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
@@ -10686,7 +10725,7 @@
         <v>646</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
@@ -10694,7 +10733,7 @@
         <v>647</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
@@ -10702,7 +10741,7 @@
         <v>648</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
@@ -10710,7 +10749,7 @@
         <v>649</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -10718,7 +10757,7 @@
         <v>650</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -10726,7 +10765,7 @@
         <v>651</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -10734,7 +10773,7 @@
         <v>652</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -10742,7 +10781,7 @@
         <v>653</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
@@ -10750,7 +10789,7 @@
         <v>654</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -10758,7 +10797,7 @@
         <v>655</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
@@ -10766,7 +10805,7 @@
         <v>656</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
@@ -10774,7 +10813,7 @@
         <v>657</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -10782,7 +10821,7 @@
         <v>658</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
@@ -10790,7 +10829,7 @@
         <v>659</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
@@ -10798,7 +10837,7 @@
         <v>660</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
@@ -10806,7 +10845,7 @@
         <v>661</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
@@ -10814,7 +10853,7 @@
         <v>662</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
@@ -10822,7 +10861,7 @@
         <v>663</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
@@ -10830,7 +10869,7 @@
         <v>664</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
@@ -10838,7 +10877,7 @@
         <v>665</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
@@ -10846,7 +10885,7 @@
         <v>666</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
@@ -10854,7 +10893,7 @@
         <v>659</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
@@ -10862,7 +10901,7 @@
         <v>667</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
@@ -10870,7 +10909,7 @@
         <v>668</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
@@ -10878,7 +10917,7 @@
         <v>669</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
@@ -10894,7 +10933,7 @@
         <v>671</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
@@ -10902,7 +10941,7 @@
         <v>672</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
@@ -10910,7 +10949,7 @@
         <v>673</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
@@ -10918,7 +10957,7 @@
         <v>673</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
@@ -10926,7 +10965,7 @@
         <v>674</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -10934,7 +10973,7 @@
         <v>675</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
@@ -10942,7 +10981,7 @@
         <v>676</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -10950,7 +10989,7 @@
         <v>677</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -10958,7 +10997,7 @@
         <v>678</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
@@ -10966,7 +11005,7 @@
         <v>679</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
@@ -10974,7 +11013,7 @@
         <v>680</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
@@ -10982,7 +11021,7 @@
         <v>681</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
@@ -10998,7 +11037,7 @@
         <v>683</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -11006,7 +11045,7 @@
         <v>684</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -11014,7 +11053,7 @@
         <v>685</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
@@ -11022,7 +11061,7 @@
         <v>686</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
@@ -11030,7 +11069,7 @@
         <v>687</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
@@ -11038,7 +11077,7 @@
         <v>688</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
@@ -11046,7 +11085,7 @@
         <v>689</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
@@ -11054,7 +11093,7 @@
         <v>690</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
@@ -11062,7 +11101,7 @@
         <v>691</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
@@ -11070,7 +11109,7 @@
         <v>692</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
@@ -11078,7 +11117,7 @@
         <v>693</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
@@ -11086,7 +11125,7 @@
         <v>694</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
@@ -11094,7 +11133,7 @@
         <v>695</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -11102,7 +11141,7 @@
         <v>696</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
@@ -11110,7 +11149,7 @@
         <v>697</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
@@ -11118,7 +11157,7 @@
         <v>698</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
@@ -11126,7 +11165,7 @@
         <v>699</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
@@ -11134,7 +11173,7 @@
         <v>699</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
@@ -11142,7 +11181,7 @@
         <v>700</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
@@ -11150,7 +11189,7 @@
         <v>701</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
@@ -11158,7 +11197,7 @@
         <v>702</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
@@ -11166,7 +11205,7 @@
         <v>703</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -11174,7 +11213,7 @@
         <v>704</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
@@ -11182,7 +11221,7 @@
         <v>705</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
@@ -11190,7 +11229,7 @@
         <v>706</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
@@ -11198,7 +11237,7 @@
         <v>707</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
@@ -11206,7 +11245,7 @@
         <v>708</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
@@ -11214,7 +11253,7 @@
         <v>709</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
@@ -11222,7 +11261,7 @@
         <v>710</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
@@ -11230,7 +11269,7 @@
         <v>711</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
@@ -11238,7 +11277,7 @@
         <v>712</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
@@ -11246,7 +11285,7 @@
         <v>713</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
@@ -11254,7 +11293,7 @@
         <v>714</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
@@ -11262,7 +11301,7 @@
         <v>715</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
@@ -11270,7 +11309,7 @@
         <v>716</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
@@ -11278,7 +11317,7 @@
         <v>717</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
@@ -11286,7 +11325,7 @@
         <v>718</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
@@ -11294,7 +11333,7 @@
         <v>719</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
@@ -11302,7 +11341,7 @@
         <v>720</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
@@ -11310,7 +11349,7 @@
         <v>721</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
@@ -11318,7 +11357,7 @@
         <v>722</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
@@ -11326,7 +11365,7 @@
         <v>723</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
@@ -11334,7 +11373,7 @@
         <v>724</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
@@ -11342,7 +11381,7 @@
         <v>725</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
@@ -11350,7 +11389,7 @@
         <v>726</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
@@ -11358,7 +11397,7 @@
         <v>727</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
@@ -11366,7 +11405,7 @@
         <v>728</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
@@ -11374,7 +11413,7 @@
         <v>729</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
@@ -11382,7 +11421,7 @@
         <v>730</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
@@ -11390,7 +11429,7 @@
         <v>731</v>
       </c>
       <c r="B745" s="5" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
@@ -11398,7 +11437,7 @@
         <v>732</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
@@ -11406,7 +11445,7 @@
         <v>732</v>
       </c>
       <c r="B747" s="5" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
@@ -11414,7 +11453,7 @@
         <v>733</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
@@ -11422,7 +11461,7 @@
         <v>734</v>
       </c>
       <c r="B749" s="5" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
@@ -11430,7 +11469,7 @@
         <v>735</v>
       </c>
       <c r="B750" s="5" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
@@ -11438,7 +11477,7 @@
         <v>736</v>
       </c>
       <c r="B751" s="5" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
@@ -11446,7 +11485,7 @@
         <v>737</v>
       </c>
       <c r="B752" s="5" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
@@ -11454,7 +11493,7 @@
         <v>738</v>
       </c>
       <c r="B753" s="5" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
@@ -11462,7 +11501,7 @@
         <v>739</v>
       </c>
       <c r="B754" s="5" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
@@ -11470,7 +11509,7 @@
         <v>740</v>
       </c>
       <c r="B755" s="5" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
@@ -11478,7 +11517,7 @@
         <v>741</v>
       </c>
       <c r="B756" s="5" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
@@ -11486,7 +11525,7 @@
         <v>742</v>
       </c>
       <c r="B757" s="5" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
@@ -11494,7 +11533,7 @@
         <v>743</v>
       </c>
       <c r="B758" s="5" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -11502,7 +11541,7 @@
         <v>744</v>
       </c>
       <c r="B759" s="5" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
@@ -11510,7 +11549,7 @@
         <v>745</v>
       </c>
       <c r="B760" s="5" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
@@ -11518,7 +11557,7 @@
         <v>746</v>
       </c>
       <c r="B761" s="5" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
@@ -11526,7 +11565,7 @@
         <v>747</v>
       </c>
       <c r="B762" s="5" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
@@ -11534,7 +11573,7 @@
         <v>748</v>
       </c>
       <c r="B763" s="5" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
@@ -11542,7 +11581,7 @@
         <v>749</v>
       </c>
       <c r="B764" s="5" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
@@ -11550,7 +11589,7 @@
         <v>750</v>
       </c>
       <c r="B765" s="5" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
@@ -11558,7 +11597,7 @@
         <v>751</v>
       </c>
       <c r="B766" s="5" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
@@ -11566,7 +11605,7 @@
         <v>752</v>
       </c>
       <c r="B767" s="5" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
@@ -11574,7 +11613,7 @@
         <v>753</v>
       </c>
       <c r="B768" s="5" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
@@ -11582,7 +11621,7 @@
         <v>754</v>
       </c>
       <c r="B769" s="5" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
@@ -11590,7 +11629,7 @@
         <v>755</v>
       </c>
       <c r="B770" s="5" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
@@ -11598,7 +11637,7 @@
         <v>756</v>
       </c>
       <c r="B771" s="5" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
@@ -11606,7 +11645,7 @@
         <v>757</v>
       </c>
       <c r="B772" s="5" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
@@ -11614,7 +11653,7 @@
         <v>758</v>
       </c>
       <c r="B773" s="5" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
@@ -11622,7 +11661,7 @@
         <v>759</v>
       </c>
       <c r="B774" s="5" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
@@ -11630,7 +11669,7 @@
         <v>760</v>
       </c>
       <c r="B775" s="5" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
@@ -11638,7 +11677,7 @@
         <v>761</v>
       </c>
       <c r="B776" s="5" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
@@ -11646,7 +11685,7 @@
         <v>762</v>
       </c>
       <c r="B777" s="5" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
@@ -11654,7 +11693,7 @@
         <v>763</v>
       </c>
       <c r="B778" s="5" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
@@ -11662,7 +11701,7 @@
         <v>764</v>
       </c>
       <c r="B779" s="5" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
@@ -11670,7 +11709,7 @@
         <v>765</v>
       </c>
       <c r="B780" s="5" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
@@ -11678,7 +11717,7 @@
         <v>766</v>
       </c>
       <c r="B781" s="5" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
@@ -11686,7 +11725,7 @@
         <v>767</v>
       </c>
       <c r="B782" s="5" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
@@ -11694,7 +11733,7 @@
         <v>768</v>
       </c>
       <c r="B783" s="5" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
@@ -11702,7 +11741,7 @@
         <v>769</v>
       </c>
       <c r="B784" s="5" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
@@ -11710,7 +11749,7 @@
         <v>770</v>
       </c>
       <c r="B785" s="5" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -11718,7 +11757,7 @@
         <v>771</v>
       </c>
       <c r="B786" s="5" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
@@ -11726,7 +11765,7 @@
         <v>772</v>
       </c>
       <c r="B787" s="5" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
@@ -11734,7 +11773,7 @@
         <v>773</v>
       </c>
       <c r="B788" s="5" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
@@ -11742,7 +11781,7 @@
         <v>774</v>
       </c>
       <c r="B789" s="5" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
@@ -11750,7 +11789,7 @@
         <v>775</v>
       </c>
       <c r="B790" s="5" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
@@ -11758,7 +11797,7 @@
         <v>776</v>
       </c>
       <c r="B791" s="5" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
@@ -11766,7 +11805,7 @@
         <v>777</v>
       </c>
       <c r="B792" s="5" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
@@ -11774,7 +11813,7 @@
         <v>778</v>
       </c>
       <c r="B793" s="5" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
@@ -11782,7 +11821,7 @@
         <v>779</v>
       </c>
       <c r="B794" s="5" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
@@ -11790,7 +11829,7 @@
         <v>780</v>
       </c>
       <c r="B795" s="5" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
@@ -11798,7 +11837,7 @@
         <v>781</v>
       </c>
       <c r="B796" s="5" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
@@ -11806,7 +11845,7 @@
         <v>782</v>
       </c>
       <c r="B797" s="5" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
@@ -11814,7 +11853,7 @@
         <v>783</v>
       </c>
       <c r="B798" s="5" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
@@ -11822,7 +11861,7 @@
         <v>784</v>
       </c>
       <c r="B799" s="5" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
@@ -11830,7 +11869,7 @@
         <v>785</v>
       </c>
       <c r="B800" s="5" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
@@ -11838,7 +11877,7 @@
         <v>786</v>
       </c>
       <c r="B801" s="5" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
@@ -11846,7 +11885,7 @@
         <v>787</v>
       </c>
       <c r="B802" s="5" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
@@ -11854,7 +11893,7 @@
         <v>788</v>
       </c>
       <c r="B803" s="5" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
@@ -11862,7 +11901,7 @@
         <v>789</v>
       </c>
       <c r="B804" s="5" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
@@ -11870,7 +11909,7 @@
         <v>790</v>
       </c>
       <c r="B805" s="5" t="s">
-        <v>1564</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
@@ -11878,7 +11917,7 @@
         <v>791</v>
       </c>
       <c r="B806" s="5" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
@@ -11886,7 +11925,7 @@
         <v>792</v>
       </c>
       <c r="B807" s="5" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
@@ -11894,7 +11933,7 @@
         <v>793</v>
       </c>
       <c r="B808" s="5" t="s">
-        <v>1567</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
@@ -11902,7 +11941,7 @@
         <v>794</v>
       </c>
       <c r="B809" s="5" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
